--- a/DocsAgenda/Lab01_ReviewReport.xlsx
+++ b/DocsAgenda/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -110,33 +110,49 @@
     <t xml:space="preserve">A01</t>
   </si>
   <si>
-    <t xml:space="preserve">Arhitectura nu e clara si nu resprecta toate cerintele stratificarii.</t>
+    <t xml:space="preserve">Nu, validatorul nu e integrat in aplicatie</t>
   </si>
   <si>
     <t xml:space="preserve">A02</t>
   </si>
   <si>
-    <t xml:space="preserve">Stratificarea este in regula, dar e incompleta.
-Lipseste layerul de Models, Controller/Services..</t>
+    <t xml:space="preserve">diagrama nu afiseaza pachetele</t>
   </si>
   <si>
     <t xml:space="preserve">A03</t>
   </si>
   <si>
-    <t xml:space="preserve">In diagrama de arhitectura nu sunt prezentate modelele descrise in requirements.
-Lispsesc generatoarele de rapoarte (controllers)</t>
+    <t xml:space="preserve">da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
   </si>
   <si>
     <t xml:space="preserve">A05</t>
   </si>
   <si>
-    <t xml:space="preserve">Exista un sistem de error handling, dar nu e destul de specific si coerent.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A06</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagrama prezinta un MVC incomplet. Trebuie adaucate urmatoarele layere: Services, Models</t>
+    <t xml:space="preserve">da:  repository, validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu: MainWindows e prea generica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da (pentru ca nu e reprezentat in diagrama BM sau DM)</t>
   </si>
   <si>
     <t xml:space="preserve">Review Form. Coding Defects</t>
@@ -146,6 +162,60 @@
   </si>
   <si>
     <t xml:space="preserve">Popescu Ionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da, in RepositoryActivityFile: if ( activities.get(i).getStart().compareTo(activity.getDuration()) &lt; 0 &amp;&amp; activity.getStart().compareTo(activities.get(i).getDuration()) &lt; 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da: toate Repository-urile care folosesc fisiere trebuie sa schimbe filename, fara "bin//" la inceput. RepositorActivity are si tipul de fisier gresit si trebuie schimbat din ".dat" in ".txt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da: RepositoryContact: fromString(line, " ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,43,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da, in Activity:duration ar trebui sa fie end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
   </si>
 </sst>
 </file>
@@ -789,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="14" t="n">
         <v>1</v>
       </c>
@@ -875,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="14" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
@@ -888,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
@@ -901,7 +971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
@@ -911,66 +981,86 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="14" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="14" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="14" t="n">
@@ -1073,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,7 +1185,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1106,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -1115,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="28"/>
     </row>
@@ -1148,120 +1238,160 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="14" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="14" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="14" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="14" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="14" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="14" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
